--- a/src/선거-부정-통합.xlsx
+++ b/src/선거-부정-통합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DataScience\[Git-Duckfin] Selection2024\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49500BE-CAB3-46A3-A34D-883D43E5C0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3F3408-BD64-428E-92D2-409BAC12DAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="5370" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="amCharts" sheetId="1" r:id="rId1"/>
@@ -2341,7 +2341,7 @@
   <dimension ref="A1:E641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
